--- a/data/trans_dic/P16A04-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03073371218607317</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05637810071782991</v>
+        <v>0.05637810071782993</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02429955148733862</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0123195372186126</v>
+        <v>0.01240578096525299</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01639805821356185</v>
+        <v>0.01657501244489363</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01872755596449562</v>
+        <v>0.0180583021529174</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02430729010639185</v>
+        <v>0.02537628391288904</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01610990210465194</v>
+        <v>0.01678554205002598</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02353853352095947</v>
+        <v>0.02375117855766691</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02198547632869462</v>
+        <v>0.02183692056185972</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04341217701692269</v>
+        <v>0.04228906967899214</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01735190664947681</v>
+        <v>0.0174461721547268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02264408477530144</v>
+        <v>0.02198591050581977</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02246146552591954</v>
+        <v>0.02218116471211386</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03668876947130417</v>
+        <v>0.038399282426333</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03564253405474679</v>
+        <v>0.03451975310581474</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03851070160350498</v>
+        <v>0.03792598693185353</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03851966293795432</v>
+        <v>0.03897896688288338</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06335145912877584</v>
+        <v>0.0661545318689853</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03781032707166807</v>
+        <v>0.03726540941679583</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04558216500422309</v>
+        <v>0.04712806405133182</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04193304300985957</v>
+        <v>0.0417083321732408</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07606783683389438</v>
+        <v>0.07402281442746185</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03315675289524753</v>
+        <v>0.03336274865510337</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03810885450396368</v>
+        <v>0.03763502886310385</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03698866572481015</v>
+        <v>0.03672304591411426</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06163997379812071</v>
+        <v>0.06376637210540731</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.014443743040195</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02656152287095633</v>
+        <v>0.02656152287095632</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01425028109338646</v>
+        <v>0.01407288510211615</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01926322096226258</v>
+        <v>0.01987436079631853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006735045503478716</v>
+        <v>0.006292693430944533</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01273614871732986</v>
+        <v>0.01270066251126548</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01179806796488855</v>
+        <v>0.01037444204846604</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01912095859564878</v>
+        <v>0.01908067730727504</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.009200652128851038</v>
+        <v>0.009216811334852967</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02357142664296527</v>
+        <v>0.02393437494692429</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01461677722322514</v>
+        <v>0.01459499386712223</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02142633343258053</v>
+        <v>0.02153509645112477</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009424558340869244</v>
+        <v>0.009481191850031559</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02096532590491226</v>
+        <v>0.02051944805648702</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03173738706621076</v>
+        <v>0.03288055708234112</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04338032414641309</v>
+        <v>0.04407951566130706</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0230602971948361</v>
+        <v>0.02180783843440246</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03289645031259128</v>
+        <v>0.03200073812825568</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02733650104935019</v>
+        <v>0.02766523956276068</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03802098165058495</v>
+        <v>0.03791489000303527</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02709973280415386</v>
+        <v>0.02698907223731603</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04215749810709485</v>
+        <v>0.04163177457428926</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02620340940623048</v>
+        <v>0.02667131185731432</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03799034827659943</v>
+        <v>0.03809309216769732</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02144932182776869</v>
+        <v>0.02068173216955041</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03501601375091365</v>
+        <v>0.03401251619037568</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006814267149125133</v>
+        <v>0.006767630912055047</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02460910799917653</v>
+        <v>0.02561868973727333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01066662665325599</v>
+        <v>0.01126133710859929</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01368853071536033</v>
+        <v>0.01442849219475954</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01499983755011824</v>
+        <v>0.01454489419174414</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01273867874727627</v>
+        <v>0.01271756349204912</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01134040241159682</v>
+        <v>0.01121397450524604</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01026034821455972</v>
+        <v>0.01028548468752645</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01210762936762274</v>
+        <v>0.01230532116913147</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02157306067326089</v>
+        <v>0.02142400282394056</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01311844195232685</v>
+        <v>0.0128196815735114</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01399377825369405</v>
+        <v>0.01417461999016267</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0210317043513905</v>
+        <v>0.02153393644505995</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05133646360348232</v>
+        <v>0.05239586226260049</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0304007165252227</v>
+        <v>0.02966788405521015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03621642596283105</v>
+        <v>0.03778411808378392</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03348222650039473</v>
+        <v>0.03428410698108095</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03305764755464782</v>
+        <v>0.03219916208711945</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03587256368267284</v>
+        <v>0.03427344557409315</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02377774237968117</v>
+        <v>0.02453472559221076</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0233107892462355</v>
+        <v>0.02463319795181214</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03921153829908856</v>
+        <v>0.03931688804595159</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02828636196965504</v>
+        <v>0.02699546630167892</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02699515839650482</v>
+        <v>0.02706337539894429</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.01920850630617418</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03736387971298189</v>
+        <v>0.0373638797129819</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01630193636578419</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006810463608803087</v>
+        <v>0.007676718572531729</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007088151087889996</v>
+        <v>0.006276073516273246</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008896838127274941</v>
+        <v>0.008731459508014721</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01142495201775499</v>
+        <v>0.01168127469788383</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005804518775143467</v>
+        <v>0.005466648806412962</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01916770657364408</v>
+        <v>0.01952763941053387</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.00881628703504826</v>
+        <v>0.009691765256104296</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02686725242591019</v>
+        <v>0.0283113912044986</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.008345177058188066</v>
+        <v>0.008670169728335678</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01562760385203863</v>
+        <v>0.01674465212549009</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01176879640208699</v>
+        <v>0.01174212221544785</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02108625580049015</v>
+        <v>0.02158316418155631</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03224378004230213</v>
+        <v>0.03485647117296291</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03852317666139065</v>
+        <v>0.03857215647095138</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03411666199167437</v>
+        <v>0.03377295767403848</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0286144501967804</v>
+        <v>0.02846396580090549</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03264410567945947</v>
+        <v>0.03374972056907254</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05653353462586573</v>
+        <v>0.05753973586098415</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03627492593953743</v>
+        <v>0.03516297016385064</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05032253434045032</v>
+        <v>0.0504017612571706</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02570819114325433</v>
+        <v>0.02608617221734324</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03961657495079274</v>
+        <v>0.04136580592736609</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02894713376112286</v>
+        <v>0.02899805909302131</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03482292686811258</v>
+        <v>0.03547811406862409</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.02267320125717033</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03275372078151163</v>
+        <v>0.03275372078151164</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01965046000538329</v>
@@ -1241,7 +1241,7 @@
         <v>0.02134778187266979</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02821125328145477</v>
+        <v>0.02821125328145478</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01364263406615965</v>
+        <v>0.01379186884763797</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02277054255202577</v>
+        <v>0.02251157766782223</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01541166791494865</v>
+        <v>0.01541693106161604</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01870388120346467</v>
+        <v>0.01835107853692883</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01663992354495773</v>
+        <v>0.01671616156768511</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02307665592184891</v>
+        <v>0.02351571075326191</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01790728826181085</v>
+        <v>0.01798930214288171</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02809388426362008</v>
+        <v>0.02760772187812349</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01638802027924794</v>
+        <v>0.01644236409507699</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02466716901537672</v>
+        <v>0.0244650578491796</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01793553214085977</v>
+        <v>0.01789536519100482</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02509913992742617</v>
+        <v>0.02448118629019624</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02300649267492474</v>
+        <v>0.02307340334577932</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03566496143830112</v>
+        <v>0.03510159613655373</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02532904138395209</v>
+        <v>0.02614143544793377</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02970631770161476</v>
+        <v>0.02917284467420395</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02639170687200244</v>
+        <v>0.02735887366868162</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03476614696068586</v>
+        <v>0.03517293472624917</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02836200000907767</v>
+        <v>0.02827533882273253</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03798884623367663</v>
+        <v>0.03823843753276015</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02342116791132134</v>
+        <v>0.02350006944708195</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03338897875177871</v>
+        <v>0.03309322174363385</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02480798553962541</v>
+        <v>0.02524257564812631</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03230483629383387</v>
+        <v>0.03239774196858523</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7196</v>
+        <v>7247</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17036</v>
+        <v>17220</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21125</v>
+        <v>20370</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12123</v>
+        <v>12656</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14859</v>
+        <v>15482</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>26215</v>
+        <v>26452</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27692</v>
+        <v>27505</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27071</v>
+        <v>26371</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>26140</v>
+        <v>26282</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>48745</v>
+        <v>47328</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>53628</v>
+        <v>52959</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>41177</v>
+        <v>43096</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20820</v>
+        <v>20164</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>40010</v>
+        <v>39402</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>43450</v>
+        <v>43968</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>31596</v>
+        <v>32994</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>34874</v>
+        <v>34371</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50766</v>
+        <v>52487</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>52817</v>
+        <v>52534</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>47434</v>
+        <v>46159</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>49950</v>
+        <v>50260</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>82035</v>
+        <v>81015</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>88313</v>
+        <v>87678</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>69180</v>
+        <v>71566</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15360</v>
+        <v>15169</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18773</v>
+        <v>19368</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6121</v>
+        <v>5719</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12222</v>
+        <v>12188</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12477</v>
+        <v>10971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20903</v>
+        <v>20859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9260</v>
+        <v>9276</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26288</v>
+        <v>26693</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>31213</v>
+        <v>31167</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>44304</v>
+        <v>44529</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18051</v>
+        <v>18159</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>43501</v>
+        <v>42576</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>34210</v>
+        <v>35442</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>42275</v>
+        <v>42957</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20958</v>
+        <v>19820</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31569</v>
+        <v>30709</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>28909</v>
+        <v>29257</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>41565</v>
+        <v>41449</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27275</v>
+        <v>27164</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>47016</v>
+        <v>46430</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>55956</v>
+        <v>56955</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>78554</v>
+        <v>78767</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>41082</v>
+        <v>39612</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>72654</v>
+        <v>70572</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7636</v>
+        <v>7584</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21759</v>
+        <v>22652</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8787</v>
+        <v>9277</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14325</v>
+        <v>15099</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14909</v>
+        <v>14457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11119</v>
+        <v>11100</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8744</v>
+        <v>8647</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10746</v>
+        <v>10772</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25602</v>
+        <v>26020</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>37904</v>
+        <v>37642</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20922</v>
+        <v>20445</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>29300</v>
+        <v>29679</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23568</v>
+        <v>24130</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45391</v>
+        <v>46328</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25043</v>
+        <v>24439</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>37900</v>
+        <v>39540</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33279</v>
+        <v>34076</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>28854</v>
+        <v>28104</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27660</v>
+        <v>26427</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24903</v>
+        <v>25695</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>49291</v>
+        <v>52087</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>68895</v>
+        <v>69080</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45112</v>
+        <v>43053</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>56522</v>
+        <v>56665</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3046</v>
+        <v>3433</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3550</v>
+        <v>3143</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4508</v>
+        <v>4424</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11150</v>
+        <v>11400</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1980</v>
+        <v>1865</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8642</v>
+        <v>8804</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4317</v>
+        <v>4746</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24413</v>
+        <v>25725</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6579</v>
+        <v>6835</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>14873</v>
+        <v>15936</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11726</v>
+        <v>11700</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>39739</v>
+        <v>40675</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14419</v>
+        <v>15588</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19294</v>
+        <v>19318</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17287</v>
+        <v>17113</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27926</v>
+        <v>27779</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11137</v>
+        <v>11514</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25489</v>
+        <v>25943</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17764</v>
+        <v>17219</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45725</v>
+        <v>45797</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20267</v>
+        <v>20565</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>37703</v>
+        <v>39368</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>28843</v>
+        <v>28894</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>65626</v>
+        <v>66861</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>44063</v>
+        <v>44545</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>77385</v>
+        <v>76505</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>51895</v>
+        <v>51913</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>65104</v>
+        <v>63876</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>55161</v>
+        <v>55414</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>81475</v>
+        <v>83025</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>63155</v>
+        <v>63445</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>103801</v>
+        <v>102004</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>107256</v>
+        <v>107612</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>170921</v>
+        <v>169521</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>123649</v>
+        <v>123372</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>180101</v>
+        <v>175666</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>74307</v>
+        <v>74523</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>121206</v>
+        <v>119292</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>85290</v>
+        <v>88026</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>103401</v>
+        <v>101545</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>87488</v>
+        <v>90694</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>122746</v>
+        <v>124183</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>100027</v>
+        <v>99721</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>140360</v>
+        <v>141283</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>153286</v>
+        <v>153803</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>231356</v>
+        <v>229306</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>171028</v>
+        <v>174024</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>231806</v>
+        <v>232472</v>
       </c>
     </row>
     <row r="24">
